--- a/exemple.xlsx
+++ b/exemple.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparr\source\repos\TweetsSentimentAnalysis-HACKTOBERFEST\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{09E8A274-EA8B-431D-9EC4-CFACEB4E7BDD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="294">
   <si>
     <t>Os suíços tem um #AnoNovo bem barulhento, por acreditarem que o som irá espantar os mais espíritos. #Réveillonpoaí http://t.co/lK0z8VyiaA</t>
   </si>
@@ -885,16 +891,180 @@
   </si>
   <si>
     <t>Divulgamos o relatório financeiro do segundo trimestre de 2014. Confira: http://t.co/FTAqYJKCQz http://t.co/6hvCHjEtN6</t>
+  </si>
+  <si>
+    <t>Support local control as much as possible. But 5G Internet isn’t just a telecomm issue, its a natl &amp; eco security one. Whoever sets the global standard on 5G will have incredible leverage on global economy &amp; tremendous advantage in geopolitics &amp; military.</t>
+  </si>
+  <si>
+    <t>Here's what oil at $100 a barrel would mean for the global economy.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40% of workers are struggling to survive in informal work – with no rights, no minimum wages and no social protection. We must </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1DA1F2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#ChangeTheRules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>global economy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1DA1F2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#wddw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1DA1F2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#FutureOfWork</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">William Nordhaus and Paul Romer, awarded the 2018 Prize in Economic Sciences, have designed methods that address some of our time’s most fundamental and pressing issues: long-term sustainable growth in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>global economy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the welfare of the world’s population. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How transparency can help the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>global economy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to grow </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1DA1F2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://wef.ch/2ypUs9g </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF14171A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1DA1F2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#economics</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,6 +1076,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF14171A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1DA1F2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF14171A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -946,18 +1138,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1004,7 +1209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1036,9 +1241,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1070,6 +1293,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1245,14 +1486,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C293"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="A1:C298"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1260,18 +1507,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>42004.79450231481</v>
+        <v>42004.794502314813</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1282,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1293,150 +1540,150 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>42002.60726851852</v>
+        <v>42002.607268518521</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>42002.52305555555</v>
+        <v>42002.523055555554</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>42002.51997685185</v>
+        <v>42002.519976851851</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>41999.58356481481</v>
+        <v>41999.583564814813</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>41998.60561342593</v>
+        <v>41998.605613425927</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>41997.58362268518</v>
+        <v>41997.583622685182</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>41996.80032407407</v>
+        <v>41996.800324074073</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>41995.82829861111</v>
+        <v>41995.828298611108</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>41992.7528125</v>
+        <v>41992.752812500003</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>41991.7680787037</v>
+        <v>41991.768078703702</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>41990.82789351852</v>
+        <v>41990.827893518523</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>41989.80710648148</v>
+        <v>41989.807106481479</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>41989.80421296296</v>
+        <v>41989.804212962961</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1447,194 +1694,194 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>41985.79190972223</v>
+        <v>41985.791909722233</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>41985.73339120371</v>
+        <v>41985.733391203707</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>41984.81884259259</v>
+        <v>41984.818842592591</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>41983.8245949074</v>
+        <v>41983.824594907397</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>41983.80767361111</v>
+        <v>41983.807673611111</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>41983.5162037037</v>
+        <v>41983.516203703701</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>41982.59180555555</v>
+        <v>41982.591805555552</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>41982.57436342593</v>
+        <v>41982.574363425927</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>41982.55434027778</v>
+        <v>41982.554340277777</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>41981.56402777778</v>
+        <v>41981.564027777778</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>41981.53143518518</v>
+        <v>41981.531435185178</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>41981.50732638889</v>
+        <v>41981.507326388892</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>41978.65086805556</v>
+        <v>41978.650868055563</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>41978.6496412037</v>
+        <v>41978.649641203701</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>41978.64952546296</v>
+        <v>41978.649525462963</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>41978.63215277778</v>
+        <v>41978.632152777784</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>41978.63127314814</v>
+        <v>41978.631273148138</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1645,7 +1892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1656,216 +1903,216 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>41978.60851851852</v>
+        <v>41978.608518518522</v>
       </c>
       <c r="C38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>41978.57728009259</v>
+        <v>41978.577280092592</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>41978.56990740741</v>
+        <v>41978.569907407407</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>41978.56891203704</v>
+        <v>41978.568912037037</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>41978.56847222222</v>
+        <v>41978.568472222221</v>
       </c>
       <c r="C42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>41978.55627314815</v>
+        <v>41978.556273148148</v>
       </c>
       <c r="C43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>41978.55582175926</v>
+        <v>41978.555821759262</v>
       </c>
       <c r="C44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>41978.5514699074</v>
+        <v>41978.551469907397</v>
       </c>
       <c r="C45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>41978.54465277777</v>
+        <v>41978.544652777768</v>
       </c>
       <c r="C46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>41978.5431712963</v>
+        <v>41978.543171296304</v>
       </c>
       <c r="C47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>41978.54222222222</v>
+        <v>41978.542222222219</v>
       </c>
       <c r="C48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>41978.53952546296</v>
+        <v>41978.539525462962</v>
       </c>
       <c r="C49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>41978.53666666667</v>
+        <v>41978.536666666667</v>
       </c>
       <c r="C50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>41978.53450231482</v>
+        <v>41978.534502314818</v>
       </c>
       <c r="C51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>41978.52775462963</v>
+        <v>41978.527754629627</v>
       </c>
       <c r="C52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>41978.52532407407</v>
+        <v>41978.525324074071</v>
       </c>
       <c r="C53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>41978.51586805555</v>
+        <v>41978.515868055547</v>
       </c>
       <c r="C54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>41978.45943287037</v>
+        <v>41978.459432870368</v>
       </c>
       <c r="C55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>41978.44527777778</v>
+        <v>41978.445277777777</v>
       </c>
       <c r="C56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1876,7 +2123,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1887,84 +2134,84 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>41977.59782407407</v>
+        <v>41977.597824074073</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>41977.44738425926</v>
+        <v>41977.447384259263</v>
       </c>
       <c r="C60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>41976.80700231482</v>
+        <v>41976.807002314818</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>41976.80385416667</v>
+        <v>41976.803854166668</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>41976.7078125</v>
+        <v>41976.707812499997</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>41976.68331018519</v>
+        <v>41976.683310185188</v>
       </c>
       <c r="C64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>41976.67552083333</v>
+        <v>41976.675520833327</v>
       </c>
       <c r="C65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1975,304 +2222,304 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>41975.87125</v>
+        <v>41975.871249999997</v>
       </c>
       <c r="C67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>41975.83564814815</v>
+        <v>41975.835648148153</v>
       </c>
       <c r="C68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>41975.80171296297</v>
+        <v>41975.801712962973</v>
       </c>
       <c r="C69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>41975.80153935185</v>
+        <v>41975.801539351851</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>41975.79405092593</v>
+        <v>41975.794050925928</v>
       </c>
       <c r="C71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>41975.79144675926</v>
+        <v>41975.791446759264</v>
       </c>
       <c r="C72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>41975.77133101852</v>
+        <v>41975.771331018521</v>
       </c>
       <c r="C73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>41975.74234953704</v>
+        <v>41975.742349537039</v>
       </c>
       <c r="C74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>41975.73980324074</v>
+        <v>41975.739803240736</v>
       </c>
       <c r="C75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>41975.73935185185</v>
+        <v>41975.739351851851</v>
       </c>
       <c r="C76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>41975.72270833333</v>
+        <v>41975.722708333327</v>
       </c>
       <c r="C77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>41975.71958333333</v>
+        <v>41975.719583333332</v>
       </c>
       <c r="C78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>41975.70690972222</v>
+        <v>41975.706909722219</v>
       </c>
       <c r="C79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>41975.70547453704</v>
+        <v>41975.705474537041</v>
       </c>
       <c r="C80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>41975.69739583333</v>
+        <v>41975.697395833333</v>
       </c>
       <c r="C81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>41975.68734953704</v>
+        <v>41975.687349537038</v>
       </c>
       <c r="C82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>41975.66996527778</v>
+        <v>41975.669965277782</v>
       </c>
       <c r="C83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>41975.6678587963</v>
+        <v>41975.667858796303</v>
       </c>
       <c r="C84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>41975.66246527778</v>
+        <v>41975.662465277783</v>
       </c>
       <c r="C85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>41975.65782407407</v>
+        <v>41975.657824074071</v>
       </c>
       <c r="C86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>41975.6472337963</v>
+        <v>41975.647233796299</v>
       </c>
       <c r="C87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>41975.64207175926</v>
+        <v>41975.642071759263</v>
       </c>
       <c r="C88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>41975.63712962963</v>
+        <v>41975.637129629627</v>
       </c>
       <c r="C89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>41975.62863425926</v>
+        <v>41975.628634259258</v>
       </c>
       <c r="C90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>41975.61921296296</v>
+        <v>41975.619212962964</v>
       </c>
       <c r="C91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>41975.58811342593</v>
+        <v>41975.588113425933</v>
       </c>
       <c r="C92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>41975.54240740741</v>
+        <v>41975.542407407411</v>
       </c>
       <c r="C93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2283,194 +2530,194 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>41975.46854166667</v>
+        <v>41975.468541666669</v>
       </c>
       <c r="C95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>41974.88488425926</v>
+        <v>41974.884884259263</v>
       </c>
       <c r="C96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>41974.88347222222</v>
+        <v>41974.883472222216</v>
       </c>
       <c r="C97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>41974.84146990741</v>
+        <v>41974.841469907413</v>
       </c>
       <c r="C98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>41974.83414351852</v>
+        <v>41974.834143518521</v>
       </c>
       <c r="C99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>41974.79016203704</v>
+        <v>41974.790162037039</v>
       </c>
       <c r="C100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>41974.7840162037</v>
+        <v>41974.784016203703</v>
       </c>
       <c r="C101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>41971.81768518518</v>
+        <v>41971.817685185182</v>
       </c>
       <c r="C102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>41971.75586805555</v>
+        <v>41971.755868055552</v>
       </c>
       <c r="C103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>41970.92127314815</v>
+        <v>41970.921273148153</v>
       </c>
       <c r="C104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>41970.70028935185</v>
+        <v>41970.700289351851</v>
       </c>
       <c r="C105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>41969.74643518519</v>
+        <v>41969.746435185189</v>
       </c>
       <c r="C106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>41969.55508101852</v>
+        <v>41969.555081018523</v>
       </c>
       <c r="C107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>41968.71077546296</v>
+        <v>41968.710775462961</v>
       </c>
       <c r="C108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>41967.55646990741</v>
+        <v>41967.556469907409</v>
       </c>
       <c r="C109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>41964.71755787037</v>
+        <v>41964.717557870368</v>
       </c>
       <c r="C110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>41964.50552083334</v>
+        <v>41964.505520833343</v>
       </c>
       <c r="C111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2481,172 +2728,172 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>41963.58430555555</v>
+        <v>41963.584305555552</v>
       </c>
       <c r="C113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>41962.70865740741</v>
+        <v>41962.708657407413</v>
       </c>
       <c r="C114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>41961.80237268518</v>
+        <v>41961.802372685182</v>
       </c>
       <c r="C115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>41960.5738425926</v>
+        <v>41960.573842592603</v>
       </c>
       <c r="C116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>41960.56238425926</v>
+        <v>41960.562384259261</v>
       </c>
       <c r="C117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>41960.51619212963</v>
+        <v>41960.516192129631</v>
       </c>
       <c r="C118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>41960.51232638889</v>
+        <v>41960.512326388889</v>
       </c>
       <c r="C119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>41957.5925</v>
+        <v>41957.592499999999</v>
       </c>
       <c r="C120" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>41956.76349537037</v>
+        <v>41956.763495370367</v>
       </c>
       <c r="C121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>41956.59334490741</v>
+        <v>41956.593344907407</v>
       </c>
       <c r="C122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>41955.71788194445</v>
+        <v>41955.717881944453</v>
       </c>
       <c r="C123" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>41955.56290509259</v>
+        <v>41955.562905092593</v>
       </c>
       <c r="C124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>41954.52299768518</v>
+        <v>41954.522997685177</v>
       </c>
       <c r="C125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>41953.51864583333</v>
+        <v>41953.518645833326</v>
       </c>
       <c r="C126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>41950.70677083333</v>
+        <v>41950.706770833327</v>
       </c>
       <c r="C127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2657,106 +2904,106 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>41950.49479166666</v>
+        <v>41950.494791666657</v>
       </c>
       <c r="C129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>41949.73554398148</v>
+        <v>41949.735543981478</v>
       </c>
       <c r="C130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>41949.53379629629</v>
+        <v>41949.533796296288</v>
       </c>
       <c r="C131" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>41948.7862962963</v>
+        <v>41948.786296296297</v>
       </c>
       <c r="C132" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>41948.7806712963</v>
+        <v>41948.780671296299</v>
       </c>
       <c r="C133" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>41948.50447916667</v>
+        <v>41948.504479166673</v>
       </c>
       <c r="C134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>41948.4890625</v>
+        <v>41948.489062499997</v>
       </c>
       <c r="C135" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>41948.0946875</v>
+        <v>41948.094687500001</v>
       </c>
       <c r="C136" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>41947.87215277777</v>
+        <v>41947.872152777767</v>
       </c>
       <c r="C137" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2767,238 +3014,238 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>41946.52540509259</v>
+        <v>41946.525405092587</v>
       </c>
       <c r="C139" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>41946.52163194444</v>
+        <v>41946.521631944437</v>
       </c>
       <c r="C140" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>41946.51956018519</v>
+        <v>41946.519560185188</v>
       </c>
       <c r="C141" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>41946.50383101852</v>
+        <v>41946.503831018519</v>
       </c>
       <c r="C142" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>41943.72195601852</v>
+        <v>41943.721956018519</v>
       </c>
       <c r="C143" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>41943.50594907408</v>
+        <v>41943.505949074082</v>
       </c>
       <c r="C144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>41942.3860300926</v>
+        <v>41942.386030092603</v>
       </c>
       <c r="C145" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>41941.85378472223</v>
+        <v>41941.853784722232</v>
       </c>
       <c r="C146" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>41941.70179398148</v>
+        <v>41941.701793981483</v>
       </c>
       <c r="C147" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>41940.586875</v>
+        <v>41940.586875000001</v>
       </c>
       <c r="C148" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>41939.76826388889</v>
+        <v>41939.768263888887</v>
       </c>
       <c r="C149" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>41936.60826388889</v>
+        <v>41936.608263888891</v>
       </c>
       <c r="C150" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>41935.81939814815</v>
+        <v>41935.819398148153</v>
       </c>
       <c r="C151" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>41935.60115740741</v>
+        <v>41935.601157407407</v>
       </c>
       <c r="C152" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>41935.53728009259</v>
+        <v>41935.537280092591</v>
       </c>
       <c r="C153" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>41934.57990740741</v>
+        <v>41934.579907407409</v>
       </c>
       <c r="C154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>41933.82831018518</v>
+        <v>41933.828310185178</v>
       </c>
       <c r="C155" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>41933.57579861111</v>
+        <v>41933.575798611113</v>
       </c>
       <c r="C156" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>41932.69921296297</v>
+        <v>41932.699212962973</v>
       </c>
       <c r="C157" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>41931.59017361111</v>
+        <v>41931.590173611112</v>
       </c>
       <c r="C158" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>41929.74939814815</v>
+        <v>41929.749398148153</v>
       </c>
       <c r="C159" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3009,18 +3256,18 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>41928.58616898148</v>
+        <v>41928.586168981477</v>
       </c>
       <c r="C161" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3031,29 +3278,29 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>41927.61556712963</v>
+        <v>41927.615567129629</v>
       </c>
       <c r="C163" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>41926.78914351852</v>
+        <v>41926.789143518523</v>
       </c>
       <c r="C164" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3064,304 +3311,304 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>41924.8785300926</v>
+        <v>41924.878530092603</v>
       </c>
       <c r="C166" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>41924.69615740741</v>
+        <v>41924.696157407408</v>
       </c>
       <c r="C167" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>41924.56717592593</v>
+        <v>41924.567175925928</v>
       </c>
       <c r="C168" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>41924.43016203704</v>
+        <v>41924.430162037039</v>
       </c>
       <c r="C169" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>41923.80446759259</v>
+        <v>41923.804467592592</v>
       </c>
       <c r="C170" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>41922.81908564815</v>
+        <v>41922.819085648152</v>
       </c>
       <c r="C171" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>41922.63054398148</v>
+        <v>41922.630543981482</v>
       </c>
       <c r="C172" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>41921.59384259259</v>
+        <v>41921.593842592592</v>
       </c>
       <c r="C173" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>41921.49373842592</v>
+        <v>41921.493738425917</v>
       </c>
       <c r="C174" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>41920.61400462963</v>
+        <v>41920.614004629628</v>
       </c>
       <c r="C175" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>41919.56317129629</v>
+        <v>41919.563171296293</v>
       </c>
       <c r="C176" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>41918.62212962963</v>
+        <v>41918.622129629628</v>
       </c>
       <c r="C177" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>41918.46701388889</v>
+        <v>41918.467013888891</v>
       </c>
       <c r="C178" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>41918.46637731481</v>
+        <v>41918.466377314813</v>
       </c>
       <c r="C179" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>41918.46596064815</v>
+        <v>41918.465960648151</v>
       </c>
       <c r="C180" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>41915.80758101852</v>
+        <v>41915.807581018518</v>
       </c>
       <c r="C181" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>41914.61758101852</v>
+        <v>41914.617581018523</v>
       </c>
       <c r="C182" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>41913.8162962963</v>
+        <v>41913.816296296303</v>
       </c>
       <c r="C183" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>41912.73189814815</v>
+        <v>41912.731898148151</v>
       </c>
       <c r="C184" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>41911.64609953704</v>
+        <v>41911.646099537043</v>
       </c>
       <c r="C185" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>41911.56210648148</v>
+        <v>41911.562106481477</v>
       </c>
       <c r="C186" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>41908.58310185185</v>
+        <v>41908.583101851851</v>
       </c>
       <c r="C187" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>41908.5474537037</v>
+        <v>41908.547453703701</v>
       </c>
       <c r="C188" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>41907.89414351852</v>
+        <v>41907.894143518519</v>
       </c>
       <c r="C189" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>41907.82042824074</v>
+        <v>41907.820428240739</v>
       </c>
       <c r="C190" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>41907.79390046297</v>
+        <v>41907.793900462973</v>
       </c>
       <c r="C191" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>41907.71585648148</v>
+        <v>41907.715856481482</v>
       </c>
       <c r="C192" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3372,216 +3619,216 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>41907.55819444444</v>
+        <v>41907.558194444442</v>
       </c>
       <c r="C194" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>41906.63806712963</v>
+        <v>41906.638067129628</v>
       </c>
       <c r="C195" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>41906.6268287037</v>
+        <v>41906.626828703702</v>
       </c>
       <c r="C196" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>41905.89910879629</v>
+        <v>41905.899108796293</v>
       </c>
       <c r="C197" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>41905.76456018518</v>
+        <v>41905.764560185176</v>
       </c>
       <c r="C198" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>41905.73923611111</v>
+        <v>41905.739236111112</v>
       </c>
       <c r="C199" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>41905.73012731481</v>
+        <v>41905.730127314811</v>
       </c>
       <c r="C200" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>41904.62123842593</v>
+        <v>41904.621238425927</v>
       </c>
       <c r="C201" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>41904.61675925926</v>
+        <v>41904.616759259261</v>
       </c>
       <c r="C202" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>41904.61265046296</v>
+        <v>41904.612650462957</v>
       </c>
       <c r="C203" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>41904.58261574074</v>
+        <v>41904.582615740743</v>
       </c>
       <c r="C204" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>41904.54577546296</v>
+        <v>41904.545775462961</v>
       </c>
       <c r="C205" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>41901.74400462963</v>
+        <v>41901.744004629632</v>
       </c>
       <c r="C206" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>41900.62560185185</v>
+        <v>41900.625601851847</v>
       </c>
       <c r="C207" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>41899.7530787037</v>
+        <v>41899.753078703703</v>
       </c>
       <c r="C208" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>41898.61434027777</v>
+        <v>41898.614340277767</v>
       </c>
       <c r="C209" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>41897.61520833334</v>
+        <v>41897.615208333344</v>
       </c>
       <c r="C210" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>41894.93940972222</v>
+        <v>41894.939409722218</v>
       </c>
       <c r="C211" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>41894.62707175926</v>
+        <v>41894.627071759263</v>
       </c>
       <c r="C212" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -3592,359 +3839,359 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>41893.93872685185</v>
+        <v>41893.938726851848</v>
       </c>
       <c r="C214" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>41892.54885416666</v>
+        <v>41892.548854166656</v>
       </c>
       <c r="C215" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>41891.59678240741</v>
+        <v>41891.596782407411</v>
       </c>
       <c r="C216" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>41890.61113425926</v>
+        <v>41890.611134259263</v>
       </c>
       <c r="C217" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>41890.5515162037</v>
+        <v>41890.551516203697</v>
       </c>
       <c r="C218" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>41887.76890046296</v>
+        <v>41887.768900462957</v>
       </c>
       <c r="C219" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>41886.74873842593</v>
+        <v>41886.748738425929</v>
       </c>
       <c r="C220" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>41886.54299768519</v>
+        <v>41886.542997685188</v>
       </c>
       <c r="C221" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>41885.77877314815</v>
+        <v>41885.778773148151</v>
       </c>
       <c r="C222" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>41884.71273148148</v>
+        <v>41884.712731481479</v>
       </c>
       <c r="C223" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>41883.80409722222</v>
+        <v>41883.804097222222</v>
       </c>
       <c r="C224" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>41883.52914351852</v>
+        <v>41883.529143518521</v>
       </c>
       <c r="C225" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>41880.73707175926</v>
+        <v>41880.737071759257</v>
       </c>
       <c r="C226" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>41879.91425925926</v>
+        <v>41879.914259259262</v>
       </c>
       <c r="C227" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>41879.88</v>
+        <v>41879.879999999997</v>
       </c>
       <c r="C228" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>41879.7458912037</v>
+        <v>41879.745891203696</v>
       </c>
       <c r="C229" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>41879.64564814815</v>
+        <v>41879.645648148151</v>
       </c>
       <c r="C230" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>41878.62907407407</v>
+        <v>41878.629074074073</v>
       </c>
       <c r="C231" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>41878.60850694445</v>
+        <v>41878.608506944453</v>
       </c>
       <c r="C232" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>41878.60806712963</v>
+        <v>41878.608067129629</v>
       </c>
       <c r="C233" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>41878.60774305555</v>
+        <v>41878.607743055552</v>
       </c>
       <c r="C234" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>41878.60756944444</v>
+        <v>41878.607569444437</v>
       </c>
       <c r="C235" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>41878.49334490741</v>
+        <v>41878.493344907409</v>
       </c>
       <c r="C236" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>41878.49299768519</v>
+        <v>41878.492997685193</v>
       </c>
       <c r="C237" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>41878.49226851852</v>
+        <v>41878.492268518523</v>
       </c>
       <c r="C238" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>41878.4884375</v>
+        <v>41878.488437499997</v>
       </c>
       <c r="C239" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>41877.81474537037</v>
+        <v>41877.814745370371</v>
       </c>
       <c r="C240" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>41876.73087962963</v>
+        <v>41876.730879629627</v>
       </c>
       <c r="C241" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>41876.62339120371</v>
+        <v>41876.623391203713</v>
       </c>
       <c r="C242" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>41873.58067129629</v>
+        <v>41873.580671296288</v>
       </c>
       <c r="C243" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>41872.65050925926</v>
+        <v>41872.650509259263</v>
       </c>
       <c r="C244" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>41872.59956018518</v>
+        <v>41872.599560185183</v>
       </c>
       <c r="C245" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -3955,18 +4202,18 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>41871.58400462963</v>
+        <v>41871.584004629629</v>
       </c>
       <c r="C247" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -3977,29 +4224,29 @@
         <v>232</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>41871.5830324074</v>
+        <v>41871.583032407398</v>
       </c>
       <c r="C249" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>41870.88403935185</v>
+        <v>41870.884039351848</v>
       </c>
       <c r="C250" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4010,18 +4257,18 @@
         <v>246</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>41870.6862962963</v>
+        <v>41870.686296296299</v>
       </c>
       <c r="C252" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4032,183 +4279,183 @@
         <v>248</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>41870.57231481482</v>
+        <v>41870.572314814817</v>
       </c>
       <c r="C254" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>41869.83706018519</v>
+        <v>41869.837060185193</v>
       </c>
       <c r="C255" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>41869.77930555555</v>
+        <v>41869.779305555552</v>
       </c>
       <c r="C256" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>41869.75047453704</v>
+        <v>41869.750474537039</v>
       </c>
       <c r="C257" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>41869.63604166666</v>
+        <v>41869.636041666658</v>
       </c>
       <c r="C258" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>41869.61101851852</v>
+        <v>41869.611018518517</v>
       </c>
       <c r="C259" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>41869.60931712963</v>
+        <v>41869.609317129631</v>
       </c>
       <c r="C260" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>41869.60523148148</v>
+        <v>41869.605231481481</v>
       </c>
       <c r="C261" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>41866.85346064815</v>
+        <v>41866.853460648148</v>
       </c>
       <c r="C262" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>41866.58619212963</v>
+        <v>41866.586192129631</v>
       </c>
       <c r="C263" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>41865.57270833333</v>
+        <v>41865.572708333333</v>
       </c>
       <c r="C264" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>41864.75394675926</v>
+        <v>41864.753946759258</v>
       </c>
       <c r="C265" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>41864.71925925926</v>
+        <v>41864.719259259262</v>
       </c>
       <c r="C266" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>41864.67541666667</v>
+        <v>41864.675416666672</v>
       </c>
       <c r="C267" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>41864.63204861111</v>
+        <v>41864.632048611107</v>
       </c>
       <c r="C268" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>41862.79706018518</v>
+        <v>41862.797060185178</v>
       </c>
       <c r="C269" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -4219,161 +4466,161 @@
         <v>265</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>41859.81226851852</v>
+        <v>41859.812268518523</v>
       </c>
       <c r="C271" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>41859.80993055556</v>
+        <v>41859.809930555559</v>
       </c>
       <c r="C272" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>41859.57677083334</v>
+        <v>41859.576770833337</v>
       </c>
       <c r="C273" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>41857.58417824074</v>
+        <v>41857.584178240737</v>
       </c>
       <c r="C274" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>41857.57318287037</v>
+        <v>41857.573182870372</v>
       </c>
       <c r="C275" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>41857.55015046296</v>
+        <v>41857.550150462957</v>
       </c>
       <c r="C276" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>41857.51877314815</v>
+        <v>41857.518773148149</v>
       </c>
       <c r="C277" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>41856.93149305556</v>
+        <v>41856.931493055563</v>
       </c>
       <c r="C278" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>41856.65206018519</v>
+        <v>41856.652060185188</v>
       </c>
       <c r="C279" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>41856.65167824074</v>
+        <v>41856.651678240742</v>
       </c>
       <c r="C280" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>41856.65098379629</v>
+        <v>41856.650983796288</v>
       </c>
       <c r="C281" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>41856.65004629629</v>
+        <v>41856.650046296287</v>
       </c>
       <c r="C282" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>41856.60233796296</v>
+        <v>41856.602337962962</v>
       </c>
       <c r="C283" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>41856.59498842592</v>
+        <v>41856.594988425917</v>
       </c>
       <c r="C284" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -4384,95 +4631,156 @@
         <v>280</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>41855.81869212963</v>
+        <v>41855.818692129629</v>
       </c>
       <c r="C286" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>41855.60712962963</v>
+        <v>41855.607129629629</v>
       </c>
       <c r="C287" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>41855.59431712963</v>
+        <v>41855.594317129631</v>
       </c>
       <c r="C288" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>41855.51969907407</v>
+        <v>41855.519699074073</v>
       </c>
       <c r="C289" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>41852.73700231482</v>
+        <v>41852.737002314818</v>
       </c>
       <c r="C290" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>41852.60577546297</v>
+        <v>41852.605775462973</v>
       </c>
       <c r="C291" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>41852.60024305555</v>
+        <v>41852.600243055553</v>
       </c>
       <c r="C292" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>41851.44296296296</v>
+        <v>41853.600242997687</v>
       </c>
       <c r="C293" t="s">
         <v>288</v>
       </c>
     </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="5">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2">
+        <v>43369.249305555553</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="5">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2">
+        <v>43378.052777777775</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" s="5">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2">
+        <v>43373.28125</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="5">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2">
+        <v>43381.119444444441</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="5">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2">
+        <v>43383.427083333336</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F303" s="3">
+        <v>43369.249305555553</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>